--- a/xlsx/_wiki_小行星3001_intext.xlsx
+++ b/xlsx/_wiki_小行星3001_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="173">
   <si>
     <t>小行星3001</t>
   </si>
@@ -384,12 +384,6 @@
   </si>
   <si>
     <t>阅读</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Project:%E4%B8%8A%E4%BC%A0</t>
-  </si>
-  <si>
-    <t>上传图像或多媒体文件[u]</t>
   </si>
   <si>
     <t>https://cs.wikipedia.org/wiki/Michelangelo_(planetka)</t>
@@ -888,7 +882,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G94"/>
+  <dimension ref="A1:G93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1212,7 +1206,7 @@
         <v>25</v>
       </c>
       <c r="G14" t="n">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -3029,29 +3023,6 @@
         <v>172</v>
       </c>
       <c r="G93" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="s">
-        <v>0</v>
-      </c>
-      <c r="C94" t="s">
-        <v>1</v>
-      </c>
-      <c r="D94" t="n">
-        <v>93</v>
-      </c>
-      <c r="E94" t="s">
-        <v>173</v>
-      </c>
-      <c r="F94" t="s">
-        <v>174</v>
-      </c>
-      <c r="G94" t="n">
         <v>1</v>
       </c>
     </row>

--- a/xlsx/_wiki_小行星3001_intext.xlsx
+++ b/xlsx/_wiki_小行星3001_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="173">
   <si>
     <t>小行星3001</t>
   </si>
@@ -384,12 +384,6 @@
   </si>
   <si>
     <t>阅读</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Project:%E4%B8%8A%E4%BC%A0</t>
-  </si>
-  <si>
-    <t>上传图像或多媒体文件[u]</t>
   </si>
   <si>
     <t>https://cs.wikipedia.org/wiki/Michelangelo_(planetka)</t>
@@ -888,7 +882,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G94"/>
+  <dimension ref="A1:G93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3032,29 +3026,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="s">
-        <v>0</v>
-      </c>
-      <c r="C94" t="s">
-        <v>1</v>
-      </c>
-      <c r="D94" t="n">
-        <v>93</v>
-      </c>
-      <c r="E94" t="s">
-        <v>173</v>
-      </c>
-      <c r="F94" t="s">
-        <v>174</v>
-      </c>
-      <c r="G94" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/xlsx/_wiki_小行星3001_intext.xlsx
+++ b/xlsx/_wiki_小行星3001_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="170">
   <si>
     <t>小行星3001</t>
   </si>
@@ -23,175 +23,175 @@
     <t>https://zh.wikipedia.org/zh-cn/%E5%B0%8F%E8%A1%8C%E6%98%9F3001</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E9%96%8B%E6%9C%97%E5%9F%BA%E7%BE%85</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%B1%B3%E9%96%8B%E6%9C%97%E5%9F%BA%E7%BE%85</t>
   </si>
   <si>
     <t>米开朗基罗</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E6%96%87%E5%AD%B8%E8%87%A8%E6%99%82%E7%B7%A8%E8%99%9F</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%A4%A9%E6%96%87%E5%AD%B8%E8%87%A8%E6%99%82%E7%B7%A8%E8%99%9F</t>
   </si>
   <si>
     <t>天文学临时编号</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E8%A1%8C%E6%98%9F%E5%B8%B6</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%B0%8F%E8%A1%8C%E6%98%9F%E5%B8%B6</t>
   </si>
   <si>
     <t>小行星带</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BB%8C%E9%81%93%E5%8F%83%E6%95%B8</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%BB%8C%E9%81%93%E5%8F%83%E6%95%B8</t>
   </si>
   <si>
     <t>轨道参数</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9B%86%E5%85%83</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%9B%86%E5%85%83</t>
   </si>
   <si>
     <t>历元</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%84%92%E7%95%A5%E6%97%A5</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%84%92%E7%95%A5%E6%97%A5</t>
   </si>
   <si>
     <t>儒略日</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%B1%E9%BB%9E</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%8B%B1%E9%BB%9E</t>
   </si>
   <si>
     <t>拱点</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%8A%E9%95%B7%E8%BB%B8</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%8D%8A%E9%95%B7%E8%BB%B8</t>
   </si>
   <si>
     <t>半长轴</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E6%96%87%E5%96%AE%E4%BD%8D</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%A4%A9%E6%96%87%E5%96%AE%E4%BD%8D</t>
   </si>
   <si>
     <t>天文单位</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BB%8C%E9%81%93%E9%9B%A2%E5%BF%83%E7%8E%87</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%BB%8C%E9%81%93%E9%9B%A2%E5%BF%83%E7%8E%87</t>
   </si>
   <si>
     <t>轨道离心率</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BD%A8%E9%81%93%E5%91%A8%E6%9C%9F</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%BD%A8%E9%81%93%E5%91%A8%E6%9C%9F</t>
   </si>
   <si>
     <t>轨道周期</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%A5</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%97%A5</t>
   </si>
   <si>
     <t>日</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BD%A8%E9%81%93%E9%80%9F%E5%BA%A6</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%BD%A8%E9%81%93%E9%80%9F%E5%BA%A6</t>
   </si>
   <si>
     <t>轨道速度</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E8%BF%91%E9%BB%9E%E8%A7%92</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%B9%B3%E8%BF%91%E9%BB%9E%E8%A7%92</t>
   </si>
   <si>
     <t>平近点角</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BB%8C%E9%81%93%E5%82%BE%E8%A7%92</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%BB%8C%E9%81%93%E5%82%BE%E8%A7%92</t>
   </si>
   <si>
     <t>轨道倾角</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A7%92%E5%BA%A6</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%A7%92%E5%BA%A6</t>
   </si>
   <si>
     <t>角度</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%87%E4%BA%A4%E9%BB%9E%E9%BB%83%E7%B6%93</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%8D%87%E4%BA%A4%E9%BB%9E%E9%BB%83%E7%B6%93</t>
   </si>
   <si>
     <t>升交点黄经</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BF%91%E5%BF%83%E9%BB%9E%E5%B9%85%E8%A7%92</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%BF%91%E5%BF%83%E9%BB%9E%E5%B9%85%E8%A7%92</t>
   </si>
   <si>
     <t>近心点幅角</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B5%95%E5%B0%8D%E6%98%9F%E7%AD%89</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%B5%95%E5%B0%8D%E6%98%9F%E7%AD%89</t>
   </si>
   <si>
     <t>绝对星等</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%BE%B7%E5%8D%8E%C2%B7%E9%B2%8D%E5%A8%81%E5%B0%94</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%88%B1%E5%BE%B7%E5%8D%8E%C2%B7%E9%B2%8D%E5%A8%81%E5%B0%94</t>
   </si>
   <si>
     <t>爱德华·鲍威尔</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%87%E8%89%BA%E5%A4%8D%E5%85%B4%E4%B8%89%E6%9D%B0</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%96%87%E8%89%BA%E5%A4%8D%E5%85%B4%E4%B8%89%E6%9D%B0</t>
   </si>
   <si>
     <t>文艺复兴三杰</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E8%A1%8C%E6%98%9F%E5%88%97%E8%A1%A8</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%B0%8F%E8%A1%8C%E6%98%9F%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
     <t>小行星列表</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E8%A1%8C%E6%98%9F3000</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%B0%8F%E8%A1%8C%E6%98%9F3000</t>
   </si>
   <si>
     <t>小行星3000</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E8%A1%8C%E6%98%9F3002</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%B0%8F%E8%A1%8C%E6%98%9F3002</t>
   </si>
   <si>
     <t>小行星3002</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/Template_talk:%E5%B0%8F%E5%A4%A9%E9%AB%94</t>
+    <t>https://zh.wikipedia.org/zh-cn/Template_talk:%E5%B0%8F%E5%A4%A9%E9%AB%94</t>
   </si>
   <si>
     <t>Template talk-小天体</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E9%99%BD%E7%B3%BB%E5%B0%8F%E5%A4%A9%E9%AB%94</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%A4%AA%E9%99%BD%E7%B3%BB%E5%B0%8F%E5%A4%A9%E9%AB%94</t>
   </si>
   <si>
     <t>太阳系小天体</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E5%9E%8B%E8%A1%8C%E6%98%9F</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%BE%AE%E5%9E%8B%E8%A1%8C%E6%98%9F</t>
   </si>
   <si>
     <t>微型行星</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E8%A1%8C%E6%98%9F%E5%BA%8F%E8%99%9F</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%B0%8F%E8%A1%8C%E6%98%9F%E5%BA%8F%E8%99%9F</t>
   </si>
   <si>
     <t>小行星序号</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E8%A1%8C%E6%98%9F%E8%A1%9B%E6%98%9F</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%B0%8F%E8%A1%8C%E6%98%9F%E8%A1%9B%E6%98%9F</t>
   </si>
   <si>
     <t>小行星卫星</t>
@@ -203,187 +203,178 @@
     <t>en-Meanings of minor planet names</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E8%A1%8C%E6%98%9F</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%B0%8F%E8%A1%8C%E6%98%9F</t>
   </si>
   <si>
     <t>小行星</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E8%A1%8C%E6%98%9F%E6%97%8F</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%B0%8F%E8%A1%8C%E6%98%9F%E6%97%8F</t>
   </si>
   <si>
     <t>小行星族</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BF%91%E5%9C%B0%E5%B0%8F%E8%A1%8C%E6%98%9F</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%BF%91%E5%9C%B0%E5%B0%8F%E8%A1%8C%E6%98%9F</t>
   </si>
   <si>
     <t>近地小行星</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%B3%A2%E7%BD%97%E5%B0%8F%E8%A1%8C%E6%98%9F</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%98%BF%E6%B3%A2%E7%BD%97%E5%B0%8F%E8%A1%8C%E6%98%9F</t>
   </si>
   <si>
     <t>阿波罗小行星</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%8E%AB%E7%88%BE%E5%9E%8B%E5%B0%8F%E8%A1%8C%E6%98%9F</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%98%BF%E8%8E%AB%E7%88%BE%E5%9E%8B%E5%B0%8F%E8%A1%8C%E6%98%9F</t>
   </si>
   <si>
     <t>阿莫尔型小行星</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%99%BB%E5%9E%8B%E5%B0%8F%E8%A1%8C%E6%98%9F</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%98%BF%E7%99%BB%E5%9E%8B%E5%B0%8F%E8%A1%8C%E6%98%9F</t>
   </si>
   <si>
     <t>阿登型小行星</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E6%B4%9B%E4%BC%8A%E5%B0%8F%E8%A1%8C%E6%98%9F</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%89%B9%E6%B4%9B%E4%BC%8A%E5%B0%8F%E8%A1%8C%E6%98%9F</t>
   </si>
   <si>
     <t>特洛伊小行星</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E6%98%9F%E7%89%B9%E6%B4%9B%E4%BC%8A</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%81%AB%E6%98%9F%E7%89%B9%E6%B4%9B%E4%BC%8A</t>
   </si>
   <si>
     <t>火星特洛伊</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E8%A1%8C%E6%98%9F%E5%85%89%E8%AD%9C%E5%88%86%E9%A1%9E</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%B0%8F%E8%A1%8C%E6%98%9F%E5%85%89%E8%AD%9C%E5%88%86%E9%A1%9E</t>
   </si>
   <si>
     <t>小行星光谱分类</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%8A%E4%BA%BA%E9%A9%AC%E5%B0%8F%E8%A1%8C%E6%98%9F</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%8D%8A%E4%BA%BA%E9%A9%AC%E5%B0%8F%E8%A1%8C%E6%98%9F</t>
   </si>
   <si>
     <t>半人马小行星</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%81%94%E6%91%A9%E5%85%8B%E5%9E%8B%E5%B0%8F%E8%A1%8C%E6%98%9F</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%81%94%E6%91%A9%E5%85%8B%E5%9E%8B%E5%B0%8F%E8%A1%8C%E6%98%9F</t>
   </si>
   <si>
     <t>达摩克型小行星</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E7%8E%8B%E6%98%9F%E7%89%B9%E6%B4%9B%E4%BC%8A</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%B5%B7%E7%8E%8B%E6%98%9F%E7%89%B9%E6%B4%9B%E4%BC%8A</t>
   </si>
   <si>
     <t>海王星特洛伊</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E7%8E%8B%E6%98%9F%E5%A4%96%E5%A4%A9%E9%AB%94</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%B5%B7%E7%8E%8B%E6%98%9F%E5%A4%96%E5%A4%A9%E9%AB%94</t>
   </si>
   <si>
     <t>海王星外天体</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E7%AB%8B%E5%A4%A9%E9%AB%94</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%8D%A8%E7%AB%8B%E5%A4%A9%E9%AB%94</t>
   </si>
   <si>
     <t>独立天体</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E6%9F%8F%E5%B8%B6</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%8F%A4%E6%9F%8F%E5%B8%B6</t>
   </si>
   <si>
     <t>柯伊伯带</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%A2%E6%95%A3%E7%9B%A4</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%9B%A2%E6%95%A3%E7%9B%A4</t>
   </si>
   <si>
     <t>离散盘</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E7%89%B9%E9%9B%B2</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%AD%90%E7%89%B9%E9%9B%B2</t>
   </si>
   <si>
     <t>奥尔特云</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BD%97%E6%98%9F</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%BD%97%E6%98%9F</t>
   </si>
   <si>
     <t>彗星</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%BD%97%E6%98%9F</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%A4%A7%E5%BD%97%E6%98%9F</t>
   </si>
   <si>
     <t>大彗星</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E5%B8%B6%E5%BD%97%E6%98%9F</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%BB%E5%B8%B6%E5%BD%97%E6%98%9F</t>
   </si>
   <si>
     <t>主带彗星</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E9%80%B1%E6%9C%9F%E5%BD%97%E6%98%9F%E5%88%97%E8%A1%A8</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%9D%9E%E9%80%B1%E6%9C%9F%E5%BD%97%E6%98%9F%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
     <t>非周期彗星列表</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%80%B1%E6%9C%9F%E5%BD%97%E6%98%9F%E5%88%97%E8%A1%A8</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%80%B1%E6%9C%9F%E5%BD%97%E6%98%9F%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
     <t>周期彗星列表</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8E%A0%E6%97%A5%E5%BD%97%E6%98%9F</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%8E%A0%E6%97%A5%E5%BD%97%E6%98%9F</t>
   </si>
   <si>
     <t>掠日彗星</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B5%81%E6%98%9F%E9%AB%94</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%B5%81%E6%98%9F%E9%AB%94</t>
   </si>
   <si>
     <t>流星体</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B5%81%E6%98%9F</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%B5%81%E6%98%9F</t>
   </si>
   <si>
     <t>流星</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9A%95%E7%9F%B3</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%9A%95%E7%9F%B3</t>
   </si>
   <si>
     <t>陨石</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E7%92%83%E9%9A%95%E7%9F%B3</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%8E%BB%E7%92%83%E9%9A%95%E7%9F%B3</t>
   </si>
   <si>
     <t>玻璃陨石</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E8%A1%8C%E6%98%9F%E8%A1%9B%E6%98%9F%E5%88%97%E8%A1%A8</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%B0%8F%E8%A1%8C%E6%98%9F%E8%A1%9B%E6%98%9F%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
     <t>小行星卫星列表</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%99%E5%B0%8F%E8%A1%8C%E6%98%9F</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%9B%99%E5%B0%8F%E8%A1%8C%E6%98%9F</t>
   </si>
   <si>
     <t>双小行星</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E8%A1%8C%E6%98%9F3001</t>
-  </si>
-  <si>
-    <t>浏览条目正文[c]</t>
-  </si>
-  <si>
-    <t>阅读</t>
   </si>
   <si>
     <t>https://cs.wikipedia.org/wiki/Michelangelo_(planetka)</t>
@@ -882,7 +873,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G93"/>
+  <dimension ref="A1:G91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1137,7 +1128,7 @@
         <v>19</v>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1206,7 +1197,7 @@
         <v>25</v>
       </c>
       <c r="G14" t="n">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2425,7 +2416,7 @@
         <v>121</v>
       </c>
       <c r="G67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2442,10 +2433,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F68" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -2465,10 +2456,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F69" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -2488,10 +2479,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F70" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -2511,10 +2502,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F71" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -2534,10 +2525,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F72" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -2557,10 +2548,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F73" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -2580,10 +2571,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F74" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -2603,10 +2594,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F75" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -2626,10 +2617,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F76" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -2649,10 +2640,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F77" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -2672,10 +2663,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F78" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -2695,10 +2686,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F79" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -2718,10 +2709,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F80" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -2741,10 +2732,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F81" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -2764,10 +2755,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F82" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -2787,10 +2778,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F83" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -2810,10 +2801,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F84" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -2833,10 +2824,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F85" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -2856,10 +2847,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F86" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -2879,10 +2870,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F87" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -2902,10 +2893,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F88" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -2925,10 +2916,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F89" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -2948,10 +2939,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F90" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -2971,58 +2962,12 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F91" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G91" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="s">
-        <v>0</v>
-      </c>
-      <c r="C92" t="s">
-        <v>1</v>
-      </c>
-      <c r="D92" t="n">
-        <v>91</v>
-      </c>
-      <c r="E92" t="s">
-        <v>169</v>
-      </c>
-      <c r="F92" t="s">
-        <v>170</v>
-      </c>
-      <c r="G92" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="s">
-        <v>0</v>
-      </c>
-      <c r="C93" t="s">
-        <v>1</v>
-      </c>
-      <c r="D93" t="n">
-        <v>92</v>
-      </c>
-      <c r="E93" t="s">
-        <v>171</v>
-      </c>
-      <c r="F93" t="s">
-        <v>172</v>
-      </c>
-      <c r="G93" t="n">
         <v>1</v>
       </c>
     </row>
